--- a/SFWS Action Plan partnership update Jan 2020.xlsx
+++ b/SFWS Action Plan partnership update Jan 2020.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\teamspace.westsussex.gov.uk\DavWWWRoot\teams\PH\HLT\Protected\Smoking\TC_OP_plan_Refresh_2018\Action_Plan_Live\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtyler/Documents/Repositories/SFWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E9BF88-B477-4C52-98EC-5447896DA8FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834A98C-8BD1-A34A-84D6-BF180AA9F150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="-13620" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27320" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Action plan'!$B$1:$M$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Action plan'!$B$1:$M$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="385">
   <si>
     <t>S/M/L</t>
   </si>
@@ -135,15 +135,9 @@
     <t>Increase in the number of IT reports to Trading Standards</t>
   </si>
   <si>
-    <t>Use young parents care pathway as an opportunity to advise on health messages</t>
-  </si>
-  <si>
     <t>Helping young people to be tobacco free</t>
   </si>
   <si>
-    <t>Fewer young parents smoking at time of delivery</t>
-  </si>
-  <si>
     <t>Pilot project 'Actively Quitting' using physical activity as a diversion</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Q. Is this data you gather that can be shared with others? If so the action needs to change to read share.</t>
   </si>
   <si>
-    <t>Q. is there a policy already in place, what specifically is the action/objective here?</t>
-  </si>
-  <si>
     <t>Trading Standards</t>
   </si>
   <si>
@@ -399,18 +390,9 @@
     <t>Provision of evidence based and consistent information, including on smoking cessation, to all families across West Sussex, via an easily accessed and interactive digital platform (Family Assist)</t>
   </si>
   <si>
-    <t>Report on the number of people signposted to stop smoking services from wellbeing hubs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share data gathered from health MOTs to show the number of people identified as smokers </t>
-  </si>
-  <si>
     <t>Signpost smokers to stop smoking services when conducting Safe and Well visits</t>
   </si>
   <si>
-    <t>Develop a Smokfree policy for all service buildings and areas staff can use whilst at work</t>
-  </si>
-  <si>
     <t>Support the Local Maternity System to achieve its aspirations related to tobacco control</t>
   </si>
   <si>
@@ -465,9 +447,6 @@
     <t>Produce smoking cessation gap analysis and action plan</t>
   </si>
   <si>
-    <t>Share data gathered from health MOTs</t>
-  </si>
-  <si>
     <t>Report the number of people signposted</t>
   </si>
   <si>
@@ -586,9 +565,6 @@
   </si>
   <si>
     <t>Support the Local Maternity System</t>
-  </si>
-  <si>
-    <t>Young parents care pathway</t>
   </si>
   <si>
     <t>Local Maternity System knowledgebase</t>
@@ -921,9 +897,6 @@
     <t>Action plan developed. Includes: 1) Continue to raise importance of data quality
 2) Continue to review and respond to training position
 3) Review feedback and explore fundiung for integrated midwifery stop smoking service</t>
-  </si>
-  <si>
-    <t>Smoking status recorded on database referred to community providers-  Stop smoking service soon to be in house.</t>
   </si>
   <si>
     <t>Specification for working with vape shops agreed to start on coastal strip. Face to face and online training include ecigs advice also fact sheets on wellbeing website.</t>
@@ -1009,9 +982,6 @@
     <t>SES LMS Maternal Smoking meeting in July communicated effective models and maternal data systems to inform maternity smoking support and commissioning.  Exploring how integrated maternity opt-out model can be developed in West Sussex</t>
   </si>
   <si>
-    <t>Merge with action 8.</t>
-  </si>
-  <si>
     <t>Public Health and Research</t>
   </si>
   <si>
@@ -1061,12 +1031,6 @@
   </si>
   <si>
     <t xml:space="preserve"> New Maternity specification written by LMS is in line with NICE guidance and beter birth guidance which inludes Co testing at antenatal appointments.GP to check about WSHT</t>
-  </si>
-  <si>
-    <t>Start in 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working with national park to develop smokefree playgrounds - </t>
   </si>
   <si>
     <t xml:space="preserve">Our maternity in house stop smoking service plans to go live mid Jan 2020 (pending wscc legal and contractual sign off). Huge thanks to WSCC for supporting this proof of concept model. I will be training our maternity support workers on the 18th Dec in appreciative inquiry (so that they are skilled in having difficult conversations) and they will also be completing the NCSCT e-learning at practitioner level. All the PGDs have passed successfully through the Trust’s medicines management committee, which means our maternity support workers will be able to give NRT as part of this new service (I think this is an England first but would need to check!). I really do believe this service will better support women to quit and remain smoke free as well as continue to signpost other family members to the existing stop smoking services. We will be running the proof of concept for 6 months initially and will closely monitor and evaluate to inform future commissioning. </t>
@@ -1117,27 +1081,12 @@
     <t>https://app.powerbi.com/view?r=eyJrIjoiYWVkOWFmYTUtODhjNi00YzEzLTg1YjMtNjg3MDNiNmRlZmE2IiwidCI6IjUwZjYwNzFmLWJiZmUtNDAxYS04ODAzLTY3Mzc0OGU2MjllMiIsImMiOjh9</t>
   </si>
   <si>
-    <t xml:space="preserve">PH funding a project to target all maternal smokers including young parents. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maternity data accuracy is highly dependant on mandatory fields within the Maternity Information System (MIS). Western Sussex Hospitals is now reaching full compliance of NHSD data quality. Work is in progress to achieve the new 36 week smoking status requirement by March 2020. </t>
   </si>
   <si>
     <t>Distribution of information drinks mats to targeted pubs at known hotspots for illicit tobacco.</t>
   </si>
   <si>
-    <t>WSCC Smokfree policy</t>
-  </si>
-  <si>
-    <t>All sites adhere to smokefree policy</t>
-  </si>
-  <si>
-    <t>The WSX Smokefree policy is under review by the Public health team</t>
-  </si>
-  <si>
-    <t>Delete this action please</t>
-  </si>
-  <si>
     <t>The WSCC smoking policy has been updated, and plans for the new year include embedding a smoke-free policy ready to launch in Jan 2021</t>
   </si>
   <si>
@@ -1180,9 +1129,6 @@
     <t>PH funding being provided for a 15 month pilot of a MSW led service in WSHT starting in January 2020</t>
   </si>
   <si>
-    <t>Please delete</t>
-  </si>
-  <si>
     <t>The Public Health team will be using the data from 2019/20 as a baseline figure. 2021/22 will be used to see if the number of young people referred have increased.</t>
   </si>
   <si>
@@ -1256,13 +1202,19 @@
   </si>
   <si>
     <t>Increase in smokers engaging with the stop smoking service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report on the number of people signposted to stop smoking services from wellbeing hubs and share data gathered from health MOTs to show the number of people identified as smokers </t>
+  </si>
+  <si>
+    <t>Working with national park to develop smokefree playgrounds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,22 +1250,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1396,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1476,18 +1412,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1498,9 +1422,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1848,95 +1769,94 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="19" customWidth="1"/>
     <col min="2" max="3" width="19" style="19" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19" style="19" customWidth="1"/>
-    <col min="8" max="9" width="19" style="19" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="10" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="19" style="19" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7265625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="6" customWidth="1"/>
+    <col min="7" max="9" width="19" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="10" customWidth="1"/>
+    <col min="11" max="13" width="19" style="19" customWidth="1"/>
+    <col min="14" max="14" width="31.6640625" style="19" customWidth="1"/>
     <col min="15" max="15" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="10"/>
+    <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="203" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
@@ -1945,7 +1865,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>9</v>
@@ -1955,30 +1875,30 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -1987,7 +1907,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>4</v>
@@ -1997,18 +1917,18 @@
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="23" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="174" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>14</v>
@@ -2017,10 +1937,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
@@ -2029,7 +1949,7 @@
         <v>13</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>11</v>
@@ -2039,30 +1959,30 @@
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H5" s="8">
         <v>2</v>
@@ -2071,40 +1991,40 @@
         <v>26</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="23" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H6" s="8">
         <v>2</v>
@@ -2113,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>11</v>
@@ -2123,30 +2043,30 @@
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="18" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="192" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>
@@ -2155,7 +2075,7 @@
         <v>26</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>4</v>
@@ -2165,30 +2085,30 @@
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="261" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H8" s="8">
         <v>2</v>
@@ -2197,7 +2117,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>9</v>
@@ -2207,30 +2127,30 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>122</v>
+        <v>383</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H9" s="8">
         <v>2</v>
@@ -2239,7 +2159,7 @@
         <v>26</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>16</v>
@@ -2250,27 +2170,27 @@
       <c r="M9" s="8"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
-        <v>9</v>
+    <row r="10" spans="1:14" ht="240" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>265</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H10" s="8">
         <v>2</v>
@@ -2279,40 +2199,40 @@
         <v>26</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="232" x14ac:dyDescent="0.35">
+      <c r="N10" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>355</v>
+        <v>313</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H11" s="8">
         <v>2</v>
@@ -2321,450 +2241,450 @@
         <v>26</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>336</v>
+        <v>195</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>323</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G12" s="14"/>
       <c r="H12" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>49</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="8">
         <v>3</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="8">
         <v>3</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="H15" s="8">
         <v>3</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>15</v>
+      <c r="N15" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>377</v>
+        <v>233</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="8" t="s">
-        <v>264</v>
+        <v>221</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H16" s="8">
         <v>3</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20">
-        <v>16</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>326</v>
+        <v>145</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="H17" s="8">
         <v>3</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>17</v>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H18" s="8">
         <v>3</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="8"/>
-      <c r="N18" s="23"/>
-    </row>
-    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
-        <v>18</v>
+      <c r="N18" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>252</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="G19" s="14"/>
       <c r="H19" s="8">
         <v>3</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M19" s="8"/>
-      <c r="N19" s="18" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>19</v>
+      <c r="N19" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G20" s="14"/>
+        <v>318</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="H20" s="8">
         <v>3</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M20" s="8"/>
-      <c r="N20" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="174" x14ac:dyDescent="0.35">
-      <c r="A21" s="20">
-        <v>20</v>
+      <c r="N20" s="18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="208" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>381</v>
+        <v>228</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H21" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="203" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H22" s="8">
         <v>4</v>
@@ -2773,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>16</v>
@@ -2783,30 +2703,30 @@
       </c>
       <c r="M22" s="8"/>
       <c r="N22" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
-        <v>22</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>265</v>
+        <v>293</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>292</v>
       </c>
       <c r="H23" s="8">
         <v>4</v>
@@ -2815,40 +2735,38 @@
         <v>7</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="8"/>
-      <c r="N23" s="18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="22">
-        <v>23</v>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>301</v>
+        <v>365</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H24" s="8">
         <v>4</v>
@@ -2857,38 +2775,40 @@
         <v>7</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="M24" s="8"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
-        <v>24</v>
+      <c r="N24" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>265</v>
+        <v>82</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="H25" s="8">
         <v>4</v>
@@ -2897,40 +2817,40 @@
         <v>7</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="M25" s="8"/>
-      <c r="N25" s="18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="203" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
-        <v>25</v>
+      <c r="N25" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="288" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>265</v>
+        <v>181</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H26" s="8">
         <v>4</v>
@@ -2939,82 +2859,82 @@
         <v>7</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M26" s="8"/>
-      <c r="N26" s="23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="N26" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H27" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H28" s="8">
         <v>5</v>
@@ -3023,40 +2943,40 @@
         <v>29</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M28" s="8"/>
       <c r="N28" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="58" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
-        <v>28</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
+        <v>29</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H29" s="8">
         <v>5</v>
@@ -3065,10 +2985,10 @@
         <v>29</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>5</v>
@@ -3078,27 +2998,27 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="20">
-        <v>29</v>
+    <row r="30" spans="1:14" ht="165" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>30</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>265</v>
+        <v>131</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H30" s="8">
         <v>5</v>
@@ -3107,40 +3027,38 @@
         <v>29</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="148.5" x14ac:dyDescent="0.35">
+      <c r="N30" s="23"/>
+    </row>
+    <row r="31" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>287</v>
+        <v>227</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H31" s="8">
         <v>5</v>
@@ -3149,38 +3067,40 @@
         <v>29</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M31" s="8"/>
-      <c r="N31" s="23"/>
-    </row>
-    <row r="32" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="N31" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="256" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>264</v>
+        <v>246</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H32" s="8">
         <v>5</v>
@@ -3189,7 +3109,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>4</v>
@@ -3198,31 +3118,31 @@
         <v>5</v>
       </c>
       <c r="M32" s="8"/>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="232" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="160" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>254</v>
+        <v>227</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H33" s="8">
         <v>5</v>
@@ -3231,7 +3151,7 @@
         <v>29</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>4</v>
@@ -3240,31 +3160,29 @@
         <v>5</v>
       </c>
       <c r="M33" s="8"/>
-      <c r="N33" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="174" x14ac:dyDescent="0.35">
+      <c r="N33" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>265</v>
+        <v>19</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H34" s="8">
         <v>5</v>
@@ -3273,7 +3191,7 @@
         <v>29</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>4</v>
@@ -3283,28 +3201,30 @@
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="G35" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H35" s="8">
         <v>5</v>
@@ -3313,40 +3233,40 @@
         <v>29</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H36" s="8">
         <v>5</v>
@@ -3355,40 +3275,40 @@
         <v>29</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M36" s="8"/>
       <c r="N36" s="18" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="112" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H37" s="8">
         <v>5</v>
@@ -3397,40 +3317,40 @@
         <v>29</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="256" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>264</v>
+        <v>247</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H38" s="8">
         <v>5</v>
@@ -3439,7 +3359,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>0</v>
@@ -3449,72 +3369,72 @@
       </c>
       <c r="M38" s="8"/>
       <c r="N38" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="232" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>213</v>
+        <v>8</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H39" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
-        <v>40</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+      <c r="A40" s="20">
+        <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H40" s="8">
         <v>6</v>
@@ -3523,40 +3443,40 @@
         <v>3</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M40" s="8"/>
       <c r="N40" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="145" x14ac:dyDescent="0.35">
-      <c r="A41" s="20">
-        <v>41</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>42</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H41" s="8">
         <v>6</v>
@@ -3565,40 +3485,38 @@
         <v>3</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="18" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="188.5" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>265</v>
+        <v>19</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="H42" s="8">
         <v>6</v>
@@ -3607,39 +3525,37 @@
         <v>3</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M42" s="8"/>
       <c r="N42" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="87" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="11" t="s">
-        <v>338</v>
-      </c>
+      <c r="G43" s="8"/>
       <c r="H43" s="8">
         <v>6</v>
       </c>
@@ -3647,36 +3563,38 @@
         <v>3</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="159.5" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8">
         <v>6</v>
@@ -3685,39 +3603,41 @@
         <v>3</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M44" s="8"/>
-      <c r="N44" s="18" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="N44" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="165" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="H45" s="8">
         <v>6</v>
       </c>
@@ -3725,40 +3645,38 @@
         <v>3</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M45" s="8"/>
-      <c r="N45" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="148.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="8">
-        <v>46</v>
+      <c r="N45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A46" s="20">
+        <v>47</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>264</v>
+        <v>227</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="H46" s="8">
         <v>6</v>
@@ -3767,7 +3685,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>9</v>
@@ -3776,29 +3694,31 @@
         <v>5</v>
       </c>
       <c r="M46" s="8"/>
-      <c r="N46" s="23"/>
-    </row>
-    <row r="47" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="20">
-        <v>47</v>
+      <c r="N46" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="224" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>48</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>265</v>
+        <v>252</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H47" s="8">
         <v>6</v>
@@ -3807,40 +3727,38 @@
         <v>3</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="246.5" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="144" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>124</v>
+        <v>379</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>264</v>
+        <v>44</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="H48" s="8">
         <v>6</v>
@@ -3849,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K48" s="8" t="s">
         <v>4</v>
@@ -3857,30 +3775,34 @@
       <c r="L48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="8"/>
+      <c r="M48" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="N48" s="18" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="145" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="8" t="s">
-        <v>264</v>
+        <v>221</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="H49" s="8">
         <v>6</v>
@@ -3889,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>4</v>
@@ -3897,34 +3819,32 @@
       <c r="L49" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="M49" s="8"/>
       <c r="N49" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="8">
-        <v>50</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A50" s="20">
+        <v>51</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>265</v>
+        <v>290</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="H50" s="8">
         <v>6</v>
@@ -3933,7 +3853,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K50" s="8" t="s">
         <v>4</v>
@@ -3943,30 +3863,28 @@
       </c>
       <c r="M50" s="8"/>
       <c r="N50" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="20">
-        <v>51</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>52</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>265</v>
+        <v>19</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H51" s="8">
         <v>6</v>
@@ -3975,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>4</v>
@@ -3988,25 +3906,27 @@
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="13" t="s">
-        <v>265</v>
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H52" s="8">
         <v>6</v>
@@ -4015,82 +3935,82 @@
         <v>3</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M52" s="8"/>
-      <c r="N52" s="18" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A53" s="8">
-        <v>53</v>
+      <c r="N52" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A53" s="20">
+        <v>54</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H53" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>277</v>
+        <v>32</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M53" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="N53" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H54" s="8">
         <v>7</v>
@@ -4099,41 +4019,39 @@
         <v>32</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N54" s="23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="20">
-        <v>55</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>56</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="11" t="s">
-        <v>265</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="8">
         <v>7</v>
       </c>
@@ -4141,171 +4059,171 @@
         <v>32</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N55" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="M55" s="8"/>
+      <c r="N55" s="18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="H56" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>278</v>
+        <v>58</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>18</v>
+        <v>224</v>
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="18" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
+        <v>58</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>252</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="G57" s="8"/>
       <c r="H57" s="8">
         <v>8</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M57" s="8"/>
-      <c r="N57" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="87" x14ac:dyDescent="0.35">
-      <c r="A58" s="8">
-        <v>58</v>
+      <c r="N57" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="128" x14ac:dyDescent="0.2">
+      <c r="A58" s="20">
+        <v>59</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G58" s="8"/>
+        <v>291</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>257</v>
+      </c>
       <c r="H58" s="8">
         <v>8</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="M58" s="8"/>
-      <c r="N58" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="20">
-        <v>59</v>
+      <c r="N58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>60</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H59" s="8">
         <v>8</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>4</v>
@@ -4316,288 +4234,290 @@
       <c r="M59" s="8"/>
       <c r="N59" s="23"/>
     </row>
-    <row r="60" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H60" s="8">
         <v>8</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="M60" s="8"/>
-      <c r="N60" s="23"/>
-    </row>
-    <row r="61" spans="1:14" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="8">
-        <v>61</v>
+      <c r="N60" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
+        <v>62</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>217</v>
+        <v>54</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>264</v>
+        <v>241</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="H61" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="M61" s="8"/>
-      <c r="N61" s="18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="E62" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="H62" s="8">
         <v>9</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>0</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N62" s="23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="20">
-        <v>63</v>
+        <v>51</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>64</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H63" s="8">
         <v>9</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="M63" s="8"/>
       <c r="N63" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="128" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>216</v>
+        <v>382</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>264</v>
+        <v>358</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="H64" s="8">
         <v>9</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M64" s="8"/>
-      <c r="N64" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="N64" s="23" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>399</v>
+        <v>120</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>264</v>
+        <v>57</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="H65" s="8">
         <v>9</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M65" s="8"/>
-      <c r="N65" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="N65" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="G66" s="11" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H66" s="8">
         <v>9</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>9</v>
@@ -4606,111 +4526,106 @@
         <v>5</v>
       </c>
       <c r="M66" s="8"/>
-      <c r="N66" s="18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" s="29" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="27">
-        <v>67</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="27" t="s">
+      <c r="N66" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>69</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8">
+        <v>10</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="8"/>
+      <c r="N67" s="18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>70</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27">
-        <v>9</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J67" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="K67" s="27" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8">
+        <v>10</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K68" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="M67" s="27"/>
-      <c r="N67" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="O67" s="29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="8">
-        <v>68</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="8">
-        <v>9</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="L68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="M68" s="8"/>
-      <c r="N68" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="116" x14ac:dyDescent="0.35">
-      <c r="A69" s="8">
-        <v>69</v>
+      <c r="N68" s="18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A69" s="20">
+        <v>71</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="11" t="s">
+        <v>256</v>
+      </c>
       <c r="H69" s="8">
         <v>10</v>
       </c>
@@ -4718,76 +4633,71 @@
         <v>22</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M69" s="8"/>
-      <c r="N69" s="18" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="87" x14ac:dyDescent="0.35">
-      <c r="A70" s="8">
-        <v>70</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8">
-        <v>10</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M70" s="8"/>
-      <c r="N70" s="18" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A71" s="20">
-        <v>71</v>
+      <c r="N69" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="29" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
+        <v>72</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>73</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>220</v>
+        <v>351</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="11" t="s">
-        <v>264</v>
+        <v>354</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="H71" s="8">
         <v>10</v>
@@ -4796,183 +4706,63 @@
         <v>22</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="M71" s="8"/>
-      <c r="N71" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="27">
-        <v>72</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="H72" s="27">
+      <c r="N71" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>74</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="8">
         <v>10</v>
       </c>
-      <c r="I72" s="27" t="s">
+      <c r="I72" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N72" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="33" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="31">
-        <v>72</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="58" x14ac:dyDescent="0.35">
-      <c r="A74" s="8">
-        <v>73</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H74" s="8">
-        <v>10</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K74" s="8" t="s">
+      <c r="J72" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="K72" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L74" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="M74" s="8"/>
-      <c r="N74" s="18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="8">
-        <v>74</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="H75" s="8">
-        <v>10</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18" t="s">
-        <v>341</v>
+      <c r="L72" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:M75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:M72" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="N11" r:id="rId1" xr:uid="{3FA82CF5-3167-4616-8299-17819920BFFD}"/>
+    <hyperlink ref="N10" r:id="rId1" xr:uid="{3FA82CF5-3167-4616-8299-17819920BFFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId2"/>
@@ -4980,6 +4770,235 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>ItemUpdatedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>10001</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemCheckedInEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>10002</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemUncheckedOutEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>10003</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemAddedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>10004</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemFileMovedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>10005</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemDeletedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10003</Type>
+    <SequenceNumber>10006</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">1fa5571e-0da0-40f1-a25b-536db3a315b5;2020-03-04 05:59:21;PARTIALMANUALCLASSIFIED;WSCC Category:2020-02-07 09:35:46|False|2020-02-07 09:35:46|MANUALCLASSIFIED|2020-02-07 09:35:46|MANUALCLASSIFIED|00000000-0000-0000-0000-000000000000;False</CSMeta2010Field>
@@ -5228,241 +5247,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>ItemUpdatedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>10001</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemCheckedInEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>10002</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemUncheckedOutEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>10003</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemAddedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>10004</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemFileMovedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>10005</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemDeletedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10003</Type>
-    <SequenceNumber>10006</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5471,22 +5256,61 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A069876-5352-40F1-B906-13C89B52A862}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A8B667-0976-4736-B6B8-5A2FA1E58EE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A8B667-0976-4736-B6B8-5A2FA1E58EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A069876-5352-40F1-B906-13C89B52A862}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD16E21F-C3FA-4A9E-8F81-9E796A4B394E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD16E21F-C3FA-4A9E-8F81-9E796A4B394E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SFWS Action Plan partnership update Jan 2020.xlsx
+++ b/SFWS Action Plan partnership update Jan 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtyler/Documents/Repositories/SFWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6834A98C-8BD1-A34A-84D6-BF180AA9F150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925BAF2-1D5F-E946-8941-1068F8BF9581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27320" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="385">
   <si>
     <t>S/M/L</t>
   </si>
@@ -1247,9 +1247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9.35"/>
+      <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1328,11 +1327,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1409,9 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1427,9 +1422,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1769,12 +1767,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,7 +1790,7 @@
     <col min="16" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>133</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="208" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="208" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1920,7 +1918,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="160" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="192" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="192" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2088,7 +2086,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="272" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="144" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="144" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -2170,7 +2168,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="240" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="240" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="30" t="s">
         <v>342</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -2208,11 +2206,12 @@
         <v>5</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="32" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>15</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>16</v>
       </c>
@@ -4646,34 +4645,38 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="29" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A70" s="27">
+    <row r="70" spans="1:14" s="28" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="26">
         <v>72</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="C70" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E70" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="30" t="s">
+      <c r="H70" s="8">
+        <v>10</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="29" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4761,11 +4764,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:M72" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="N10" r:id="rId1" xr:uid="{3FA82CF5-3167-4616-8299-17819920BFFD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SFWS Action Plan partnership update Jan 2020.xlsx
+++ b/SFWS Action Plan partnership update Jan 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richtyler/Documents/Repositories/SFWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925BAF2-1D5F-E946-8941-1068F8BF9581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D02F05-48E0-504D-9E2A-5882C50F1DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27320" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="385">
   <si>
     <t>S/M/L</t>
   </si>
@@ -1078,9 +1078,6 @@
     </r>
   </si>
   <si>
-    <t>https://app.powerbi.com/view?r=eyJrIjoiYWVkOWFmYTUtODhjNi00YzEzLTg1YjMtNjg3MDNiNmRlZmE2IiwidCI6IjUwZjYwNzFmLWJiZmUtNDAxYS04ODAzLTY3Mzc0OGU2MjllMiIsImMiOjh9</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maternity data accuracy is highly dependant on mandatory fields within the Maternity Information System (MIS). Western Sussex Hospitals is now reaching full compliance of NHSD data quality. Work is in progress to achieve the new 36 week smoking status requirement by March 2020. </t>
   </si>
   <si>
@@ -1099,9 +1096,6 @@
     <t>Chichester District Council ran a small pilot in industrial estate in local area</t>
   </si>
   <si>
-    <t>Chichester Distric Council</t>
-  </si>
-  <si>
     <t>Smoking was oberved in X number of vehicles. X were reported back to employers.</t>
   </si>
   <si>
@@ -1208,6 +1202,12 @@
   </si>
   <si>
     <t>Working with national park to develop smokefree playgrounds</t>
+  </si>
+  <si>
+    <t>https://digital.nhs.uk/data-and-information/data-collections-and-data-sets/data-sets/maternity-services-data-set/maternity-services-dashboard</t>
+  </si>
+  <si>
+    <t>District &amp; Boroughs</t>
   </si>
 </sst>
 </file>
@@ -1770,9 +1770,9 @@
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="160" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
@@ -2145,7 +2145,7 @@
         <v>221</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>257</v>
@@ -2185,7 +2185,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>256</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="32" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="O10" s="31"/>
     </row>
@@ -2252,7 +2252,7 @@
         <v>47</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2386,7 +2386,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>44</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -2432,7 +2432,7 @@
         <v>221</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>257</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="M16" s="8"/>
       <c r="N16" s="18" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="96" x14ac:dyDescent="0.2">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="80" x14ac:dyDescent="0.2">
@@ -2556,7 +2556,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="8">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="192" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
         <v>318</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>257</v>
@@ -2762,7 +2762,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>257</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="192" x14ac:dyDescent="0.2">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="288" x14ac:dyDescent="0.2">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="96" x14ac:dyDescent="0.2">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="18" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="80" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="M46" s="8"/>
       <c r="N46" s="18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="224" x14ac:dyDescent="0.2">
@@ -3747,10 +3747,10 @@
         <v>162</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>44</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="64" x14ac:dyDescent="0.2">
@@ -4360,7 +4360,7 @@
         <v>51</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="80" x14ac:dyDescent="0.2">
@@ -4413,16 +4413,16 @@
         <v>176</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>256</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="M65" s="8"/>
       <c r="N65" s="18" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="66" spans="1:14" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="80" x14ac:dyDescent="0.2">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="64" x14ac:dyDescent="0.2">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="28" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -4650,19 +4650,19 @@
         <v>72</v>
       </c>
       <c r="B70" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="D70" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="E70" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F70" s="27" t="s">
         <v>347</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>349</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>257</v>
@@ -4672,12 +4672,15 @@
       </c>
       <c r="I70" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="K70" s="26"/>
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
       <c r="N70" s="29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="64" x14ac:dyDescent="0.2">
@@ -4685,19 +4688,19 @@
         <v>73</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="F71" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>256</v>
@@ -4719,7 +4722,7 @@
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="96" x14ac:dyDescent="0.2">
@@ -4759,7 +4762,7 @@
       </c>
       <c r="M72" s="18"/>
       <c r="N72" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4770,235 +4773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>ItemUpdatedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>10001</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemCheckedInEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>10002</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemUncheckedOutEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>10003</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemAddedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>10004</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemFileMovedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>10005</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>ItemDeletedEventHandlerForConceptSearch</Name>
-    <Synchronization>Asynchronous</Synchronization>
-    <Type>10003</Type>
-    <SequenceNumber>10006</SequenceNumber>
-    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
-    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CSMeta2010Field xmlns="http://schemas.microsoft.com/sharepoint/v3">1fa5571e-0da0-40f1-a25b-536db3a315b5;2020-03-04 05:59:21;PARTIALMANUALCLASSIFIED;WSCC Category:2020-02-07 09:35:46|False|2020-02-07 09:35:46|MANUALCLASSIFIED|2020-02-07 09:35:46|MANUALCLASSIFIED|00000000-0000-0000-0000-000000000000;False</CSMeta2010Field>
@@ -5247,7 +5021,241 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="WSCC Document" ma:contentTypeID="0x01010008FB9B3217D433459C91B5CF793C1D79007461669338EA85489E4BA6CA2B3BA852" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="ae4bde9a2964b34326abd15481a333b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1209568c-8f7e-4a25-939e-4f22fd0c2b25" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f04673fdb785c505355dc3028254dfa8" ns1:_="" ns2:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:j5da7913ca98450ab299b9b62231058f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns1:CSMeta2010Field" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CSMeta2010Field" ma:index="12" nillable="true" ma:displayName="Classification Status" ma:internalName="CSMeta2010Field" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1209568c-8f7e-4a25-939e-4f22fd0c2b25" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="j5da7913ca98450ab299b9b62231058f" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="j5da7913ca98450ab299b9b62231058f" ma:taxonomyFieldName="WSCC_x0020_Category" ma:displayName="WSCC Category" ma:default="" ma:fieldId="{35da7913-ca98-450a-b299-b9b62231058f}" ma:taxonomyMulti="true" ma:sspId="73f0a195-02ac-4a72-b655-6664c0f36d60" ma:termSetId="7de65220-e004-4a12-a7da-04480380f206" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{9087b8a5-b7c0-4e33-b356-9d62bce29a4a}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ed03de46-a594-4457-9414-413b168f401d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>ItemUpdatedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>10001</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemCheckedInEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>10002</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemUncheckedOutEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>10003</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemAddedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>10004</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemFileMovedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>10005</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>ItemDeletedEventHandlerForConceptSearch</Name>
+    <Synchronization>Asynchronous</Synchronization>
+    <Type>10003</Type>
+    <SequenceNumber>10006</SequenceNumber>
+    <Assembly>conceptSearching.Sharepoint.ContentTypes2010, Version=1.0.0.0, Culture=neutral, PublicKeyToken=858f8f13980e4745</Assembly>
+    <Class>conceptSearching.Sharepoint.ContentTypes2010.CSHandleEvent</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5256,15 +5264,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="73f0a195-02ac-4a72-b655-6664c0f36d60" ContentTypeId="0x01010008FB9B3217D433459C91B5CF793C1D79" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A069876-5352-40F1-B906-13C89B52A862}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5289,28 +5295,25 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81DA5304-C145-49A6-B089-CBFEBCB5A12C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A069876-5352-40F1-B906-13C89B52A862}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1209568c-8f7e-4a25-939e-4f22fd0c2b25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD16E21F-C3FA-4A9E-8F81-9E796A4B394E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90D2BF52-903F-47A7-9E65-A1ECE2CB776A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD16E21F-C3FA-4A9E-8F81-9E796A4B394E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>